--- a/Optimizacao/Modelo_prob_mistura/instancias01.xlsx
+++ b/Optimizacao/Modelo_prob_mistura/instancias01.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme Cardoso A\Documents\GitHub\Metodos_Numericos\Optimizacao\Modelo_prob_mistura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0BFDA1-05AA-41E2-AD8D-4C0F7617187A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A910700F-580F-4FBB-9D88-824AD16D5D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instancia01" sheetId="1" r:id="rId1"/>
-    <sheet name="restricoes" sheetId="2" r:id="rId2"/>
+    <sheet name="intancia01_quantidades" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -41,16 +41,16 @@
     <t>Custo</t>
   </si>
   <si>
-    <t>Ração</t>
+    <t>Ração (min)</t>
   </si>
   <si>
-    <t>Sinal</t>
+    <t>Ração(Max)</t>
   </si>
   <si>
-    <t>&gt;=</t>
+    <t>ra2</t>
   </si>
   <si>
-    <t>&lt;=</t>
+    <t>r2</t>
   </si>
 </sst>
 </file>
@@ -891,15 +891,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -910,13 +914,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -929,14 +939,20 @@
       <c r="D2">
         <v>0.4</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="E2">
+        <v>0.3</v>
       </c>
       <c r="F2">
-        <v>0.3</v>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -949,14 +965,20 @@
       <c r="D3">
         <v>0.4</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="E3">
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -980,11 +1002,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Optimizacao/Modelo_prob_mistura/instancias01.xlsx
+++ b/Optimizacao/Modelo_prob_mistura/instancias01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme Cardoso A\Documents\GitHub\Metodos_Numericos\Optimizacao\Modelo_prob_mistura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A910700F-580F-4FBB-9D88-824AD16D5D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF42B201-DD97-44C0-BDE6-E66E02FE638A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instancia01" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Osso</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>r2</t>
+  </si>
+  <si>
+    <t>csadasd</t>
   </si>
 </sst>
 </file>
@@ -891,19 +894,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -911,22 +914,25 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -937,22 +943,25 @@
         <v>0.5</v>
       </c>
       <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
         <v>0.4</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.3</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -963,22 +972,25 @@
         <v>0.9</v>
       </c>
       <c r="D3">
+        <v>0.7</v>
+      </c>
+      <c r="E3">
         <v>0.4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -989,6 +1001,9 @@
         <v>0.81</v>
       </c>
       <c r="D4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E4">
         <v>0.46</v>
       </c>
     </row>
@@ -1002,14 +1017,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Optimizacao/Modelo_prob_mistura/instancias01.xlsx
+++ b/Optimizacao/Modelo_prob_mistura/instancias01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme Cardoso A\Documents\GitHub\Metodos_Numericos\Optimizacao\Modelo_prob_mistura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF42B201-DD97-44C0-BDE6-E66E02FE638A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873B9850-5D55-496A-8EEE-196085624707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Osso</t>
   </si>
@@ -42,18 +42,6 @@
   </si>
   <si>
     <t>Ração (min)</t>
-  </si>
-  <si>
-    <t>Ração(Max)</t>
-  </si>
-  <si>
-    <t>ra2</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>csadasd</t>
   </si>
 </sst>
 </file>
@@ -894,19 +882,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -914,25 +902,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -943,25 +919,13 @@
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E2">
-        <v>0.4</v>
-      </c>
-      <c r="F2">
         <v>0.3</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.2</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -972,25 +936,13 @@
         <v>0.9</v>
       </c>
       <c r="D3">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="E3">
-        <v>0.4</v>
-      </c>
-      <c r="F3">
         <v>0.5</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0.1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1001,9 +953,6 @@
         <v>0.81</v>
       </c>
       <c r="D4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E4">
         <v>0.46</v>
       </c>
     </row>
@@ -1016,15 +965,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB461BD-0A90-4099-B6B2-000B4C6250F3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
